--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ifna11-Ifnar2.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Ifna11</t>
+  </si>
+  <si>
+    <t>Ifnar2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ifna11</t>
-  </si>
-  <si>
-    <t>Ifnar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H2">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4475095</v>
+        <v>30.7693535</v>
       </c>
       <c r="N2">
-        <v>58.895019</v>
+        <v>61.538707</v>
       </c>
       <c r="O2">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="P2">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
       <c r="Q2">
-        <v>0.281773402569</v>
+        <v>6.45708729406575</v>
       </c>
       <c r="R2">
-        <v>1.690640415414</v>
+        <v>25.828349176263</v>
       </c>
       <c r="S2">
-        <v>0.1188040616343075</v>
+        <v>0.1179731387858698</v>
       </c>
       <c r="T2">
-        <v>0.08432571340736818</v>
+        <v>0.08351747770158975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H3">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>72.556906</v>
       </c>
       <c r="O3">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="P3">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
       <c r="Q3">
-        <v>0.2314242826262222</v>
+        <v>5.075464410059</v>
       </c>
       <c r="R3">
-        <v>2.082818543636</v>
+        <v>30.452786460354</v>
       </c>
       <c r="S3">
-        <v>0.09757537257289006</v>
+        <v>0.09273042782012855</v>
       </c>
       <c r="T3">
-        <v>0.1038867626663191</v>
+        <v>0.09847086613229204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,19 +658,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H4">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.143293</v>
+        <v>81.77185533333333</v>
       </c>
       <c r="N4">
-        <v>219.429879</v>
+        <v>245.315566</v>
       </c>
       <c r="O4">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="P4">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
       <c r="Q4">
-        <v>0.6998837896193333</v>
+        <v>17.160191815049</v>
       </c>
       <c r="R4">
-        <v>6.298954106574</v>
+        <v>102.961150890294</v>
       </c>
       <c r="S4">
-        <v>0.2950918579280266</v>
+        <v>0.3135224286729781</v>
       </c>
       <c r="T4">
-        <v>0.3141790494976744</v>
+        <v>0.3329309033622996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,19 +720,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H5">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72803</v>
+        <v>14.8441875</v>
       </c>
       <c r="N5">
-        <v>31.45606</v>
+        <v>29.688375</v>
       </c>
       <c r="O5">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="P5">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
       <c r="Q5">
-        <v>0.1504962763933333</v>
+        <v>3.11511954571875</v>
       </c>
       <c r="R5">
-        <v>0.90297765836</v>
+        <v>12.460478182875</v>
       </c>
       <c r="S5">
-        <v>0.06345371398916563</v>
+        <v>0.05691427322647431</v>
       </c>
       <c r="T5">
-        <v>0.04503869334832845</v>
+        <v>0.04029168498874919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +782,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H6">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.91393266666667</v>
+        <v>53.27148833333334</v>
       </c>
       <c r="N6">
-        <v>68.741798</v>
+        <v>159.814465</v>
       </c>
       <c r="O6">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="P6">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
       <c r="Q6">
-        <v>0.2192557837097778</v>
+        <v>11.1792615484475</v>
       </c>
       <c r="R6">
-        <v>1.973302053388</v>
+        <v>67.07556929068501</v>
       </c>
       <c r="S6">
-        <v>0.09244477088342698</v>
+        <v>0.2042488376129897</v>
       </c>
       <c r="T6">
-        <v>0.09842430235492741</v>
+        <v>0.2168927763956593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.009568666666666666</v>
+        <v>0.2098545</v>
       </c>
       <c r="H7">
-        <v>0.028706</v>
+        <v>0.419709</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.44778433333333</v>
+        <v>55.97408466666666</v>
       </c>
       <c r="N7">
-        <v>247.343353</v>
+        <v>167.922254</v>
       </c>
       <c r="O7">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="P7">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
       <c r="Q7">
-        <v>0.7889153656908888</v>
+        <v>11.746413550681</v>
       </c>
       <c r="R7">
-        <v>7.100238291217999</v>
+        <v>70.47848130408599</v>
       </c>
       <c r="S7">
-        <v>0.332630222992183</v>
+        <v>0.2146108938815595</v>
       </c>
       <c r="T7">
-        <v>0.3541454787253825</v>
+        <v>0.22789629141941</v>
       </c>
     </row>
   </sheetData>
